--- a/documents/template_data.xlsx
+++ b/documents/template_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tequilamambo/Dropbox/Consulting/PPI_generic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tequilamambo/Documents/GitHub/ppi_app/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7A54F1-1BBC-AD49-AE5E-068605FC8E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388609E8-D4E2-FD42-9430-F27D055B04C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="1480" windowWidth="30820" windowHeight="21220" xr2:uid="{582CAC0C-F437-FA41-B2BA-58E18307E1B4}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="30820" windowHeight="21220" xr2:uid="{582CAC0C-F437-FA41-B2BA-58E18307E1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t>I0</t>
   </si>
@@ -55,18 +55,6 @@
   </si>
   <si>
     <t>T</t>
-  </si>
-  <si>
-    <t>﻿alphas</t>
-  </si>
-  <si>
-    <t>alphas_prime</t>
-  </si>
-  <si>
-    <t>betas</t>
-  </si>
-  <si>
-    <t>success_rates</t>
   </si>
   <si>
     <t>Will do callibration</t>
@@ -240,9 +228,6 @@
     <t>color</t>
   </si>
   <si>
-    <t>Custom label for each indicator. Will be used in the visualizations. Should not be longer than XXX characters.</t>
-  </si>
-  <si>
     <t>Hexagesimal color code for each indicator. Will be used in the visualizations.</t>
   </si>
   <si>
@@ -275,6 +260,30 @@
   </si>
   <si>
     <t>A matrix containing all the interdependencies between indicators. The rows correspond to the indicators sending spillovers and the columns to those receiving them. The diagonal values must be zero (the app will enforce this). If not provided, PPI assumes that there are no spillover effects (a matrix full of zeros).</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Full name of the indicator. It will appear only in the interactive visualizations.</t>
+  </si>
+  <si>
+    <t>Custom label for each indicator. Will be used in the visualizations. Should not be longer than XXX characters. If not provided, the app assigns a number from 1 to N.</t>
+  </si>
+  <si>
+    <t>Column name</t>
+  </si>
+  <si>
+    <t>﻿alpha</t>
+  </si>
+  <si>
+    <t>alpha_prime</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>success_rate</t>
   </si>
 </sst>
 </file>
@@ -696,15 +705,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF15FDC6-1029-1846-9DAD-BEAFFE44F44D}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -715,19 +724,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22" x14ac:dyDescent="0.25">
@@ -735,67 +744,67 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" x14ac:dyDescent="0.25">
@@ -803,33 +812,33 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -837,16 +846,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="88" x14ac:dyDescent="0.25">
@@ -854,16 +863,16 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="88" x14ac:dyDescent="0.25">
@@ -871,16 +880,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -888,16 +897,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -905,16 +914,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -922,57 +931,74 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="44" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="44" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="44" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -997,34 +1023,34 @@
   <sheetData>
     <row r="1" spans="1:2" s="8" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="110" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="110" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="154" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1048,7 +1074,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="88" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1074,21 +1100,21 @@
     <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="22" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="110" x14ac:dyDescent="0.2">
@@ -1096,33 +1122,33 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="44" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/documents/template_data.xlsx
+++ b/documents/template_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tequilamambo/Documents/GitHub/ppi_app/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388609E8-D4E2-FD42-9430-F27D055B04C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32856B6-BC52-9C41-988A-66C6C68652C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="30820" windowHeight="21220" xr2:uid="{582CAC0C-F437-FA41-B2BA-58E18307E1B4}"/>
+    <workbookView xWindow="10620" yWindow="3280" windowWidth="30820" windowHeight="21220" xr2:uid="{582CAC0C-F437-FA41-B2BA-58E18307E1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="3" r:id="rId1"/>
@@ -708,7 +708,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -758,10 +758,10 @@
     </row>
     <row r="3" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -770,12 +770,12 @@
         <v>40</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -787,12 +787,12 @@
         <v>40</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>53</v>
+      <c r="A5" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -803,25 +803,25 @@
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>18</v>
+      <c r="E5" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
+      <c r="A6" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>19</v>
+      <c r="E6" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="66" x14ac:dyDescent="0.25">

--- a/documents/template_data.xlsx
+++ b/documents/template_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tequilamambo/Documents/GitHub/ppi_app/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32856B6-BC52-9C41-988A-66C6C68652C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0837600-5FBE-F542-BE89-9AFA7154CA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10620" yWindow="3280" windowWidth="30820" windowHeight="21220" xr2:uid="{582CAC0C-F437-FA41-B2BA-58E18307E1B4}"/>
   </bookViews>
@@ -73,21 +73,6 @@
   </si>
   <si>
     <t>optional</t>
-  </si>
-  <si>
-    <t>Initial values of the indicators</t>
-  </si>
-  <si>
-    <t>Parameters associated to structural constraints</t>
-  </si>
-  <si>
-    <t>Parameters associated to structural costs</t>
-  </si>
-  <si>
-    <t>Parameters associated expenditure returns</t>
-  </si>
-  <si>
-    <t>Final values of the indicators</t>
   </si>
   <si>
     <t>Number of times that the indicator improved, as a rate of the number of datapoints in the time series, minus one. It must be greater than 0 and less than 1.</t>
@@ -284,6 +269,21 @@
   </si>
   <si>
     <t>success_rate</t>
+  </si>
+  <si>
+    <t>Parameters associated to structural constraints.</t>
+  </si>
+  <si>
+    <t>Parameters associated to structural costs.</t>
+  </si>
+  <si>
+    <t>Parameters associated expenditure returns.</t>
+  </si>
+  <si>
+    <t>Initial historical values of the indicators.</t>
+  </si>
+  <si>
+    <t>Final historical values of the indicators. When performing prospective simulations, there values become the initial conditions.</t>
   </si>
 </sst>
 </file>
@@ -708,7 +708,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -724,7 +724,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -733,7 +733,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>11</v>
@@ -750,13 +750,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="44" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -767,15 +767,15 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -784,15 +784,15 @@
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -801,15 +801,15 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -818,15 +818,15 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
@@ -835,10 +835,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -852,10 +852,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="88" x14ac:dyDescent="0.25">
@@ -869,10 +869,10 @@
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="88" x14ac:dyDescent="0.25">
@@ -886,10 +886,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -903,10 +903,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -920,10 +920,10 @@
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="44" x14ac:dyDescent="0.25">
@@ -937,15 +937,15 @@
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
@@ -954,15 +954,15 @@
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="44" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -971,27 +971,27 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="44" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E16" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,34 +1023,34 @@
   <sheetData>
     <row r="1" spans="1:2" s="8" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="110" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="110" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="154" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1074,7 +1074,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="88" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1102,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>9</v>
@@ -1111,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>11</v>
@@ -1128,15 +1128,15 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="44" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -1145,10 +1145,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
